--- a/meta/program/BlancoResourceBundleTask.xlsx
+++ b/meta/program/BlancoResourceBundleTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoResourceBundle/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D92085-929B-7940-BE64-26CC0E51304B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468E41E-F3BD-1545-AA66-2439C01518E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860"/>
+    <workbookView xWindow="1040" yWindow="1100" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,14 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -238,12 +240,45 @@
     <t>自動生成するソースファイルの文字エンコーディングを指定します。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>targetStyle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>blanco</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力先フォルダの書式を指定します。&lt;br&gt;
+blanco: [targetdir]/main&lt;br&gt;
+maven: [targetdir]/main/java&lt;br&gt;
+free: [targetdir](targetdirが無指定の場合はblanco/main)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -284,6 +319,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -652,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -753,6 +794,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,27 +834,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1191,13 +1237,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1242,10 +1290,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1255,10 +1303,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1269,10 +1317,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1283,10 +1331,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1318,38 +1366,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="44">
@@ -1374,6 +1422,7 @@
     </row>
     <row r="15" spans="1:9" ht="26.5" customHeight="1">
       <c r="A15" s="51">
+        <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="52" t="s">
@@ -1386,15 +1435,16 @@
       <c r="E15" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="26.5" customHeight="1">
       <c r="A16" s="51">
+        <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -1407,15 +1457,16 @@
       <c r="E16" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="26.5" customHeight="1">
       <c r="A17" s="51">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="52" t="s">
@@ -1426,15 +1477,16 @@
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="26.5" customHeight="1">
       <c r="A18" s="51">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="52" t="s">
@@ -1447,15 +1499,16 @@
       <c r="E18" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9" ht="66" customHeight="1">
       <c r="A19" s="51">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B19" s="52" t="s">
@@ -1468,15 +1521,16 @@
       <c r="E19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9" ht="25.25" customHeight="1">
       <c r="A20" s="51">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -1489,15 +1543,16 @@
       <c r="E20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="22">
+      <c r="A21" s="51">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1517,36 +1572,74 @@
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="42"/>
+    <row r="22" spans="1:9" ht="90">
+      <c r="A22" s="51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>18</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="51">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F17:I17"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1557,17 +1650,23 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F17:I17"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C25" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>
@@ -1580,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
